--- a/docs/odh/shr-core-Composition.xlsx
+++ b/docs/odh/shr-core-Composition.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="367">
   <si>
     <t>Path</t>
   </si>
@@ -206,492 +206,381 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>Composition.meta.id</t>
+    <t>Composition.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
+This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Composition.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Composition.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Composition.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Composition.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Composition.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Logical identifier of composition (version-independent)</t>
+  </si>
+  <si>
+    <t>Logical identifier for the composition, assigned when created. This identifier stays constant as the composition is changed over time.</t>
+  </si>
+  <si>
+    <t>See discussion in resource definition for how these relate.</t>
+  </si>
+  <si>
+    <t>Document.id / Document.setId</t>
+  </si>
+  <si>
+    <t>.setId</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Composition.status</t>
+  </si>
+  <si>
+    <t>preliminary | final | amended | entered-in-error</t>
+  </si>
+  <si>
+    <t>The workflow/clinical status of this composition. The status is a marker for the clinical standing of the document.</t>
+  </si>
+  <si>
+    <t>If a composition is marked as withdrawn, the compositions/documents in the series, or data from the composition or document series, should never be displayed to a user without being clearly marked as untrustworthy. The flag "entered-in-error" is why this element is labeled as a modifier of other elements. 
+Some reporting work flows require that the original narrative of a final document never be altered; instead, only new narrative can be added. The composition resource has no explicit status for explicitly noting whether this business rule is in effect. This would be handled by an extension if required.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark interim, amended, or withdrawn compositions or documents.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The workflow/clinical status of the composition.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/composition-status</t>
+  </si>
+  <si>
+    <t>interim: .completionCode="IN" &amp; ./statusCode[isNormalDatatype()]="active";  final: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and not(./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseComposition", code) and isNormalAct()]);  amended: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and ./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseComposition", code) and isNormalAct() and statusCode="completed"];  withdrawn : .completionCode=NI &amp;&amp;  ./statusCode[isNormalDatatype()]="obsolete"</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Composition.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Kind of composition (LOINC if possible)</t>
+  </si>
+  <si>
+    <t>Specifies the particular kind of composition (e.g. History and Physical, Discharge Summary, Progress Note). This usually equates to the purpose of making the composition.</t>
+  </si>
+  <si>
+    <t>For Composition type, LOINC is ubiquitous and strongly endorsed by HL7. Most implementation guides will require a specific LOINC code, or use LOINC as an extensible binding.</t>
+  </si>
+  <si>
+    <t>Key metadata element describing the composition, used in searching/filtering.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>Type of a composition.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/doc-typecodes</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Composition.class</t>
+  </si>
+  <si>
+    <t>Categorization of Composition</t>
+  </si>
+  <si>
+    <t>A categorization for the type of the composition - helps for indexing and searching. This may be implied by or derived from the code specified in the Composition Type.</t>
+  </si>
+  <si>
+    <t>This is a metadata field from [XDS/MHD](http://wiki.ihe.net/index.php?title=Mobile_access_to_Health_Documents_(MHD)).</t>
+  </si>
+  <si>
+    <t>Helps humans to assess whether the composition is of interest when viewing an index of compositions or documents.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>High-level kind of a clinical document at a macro level.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/doc-classcodes</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>Composition.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
+</t>
+  </si>
+  <si>
+    <t>Who and/or what the composition is about</t>
+  </si>
+  <si>
+    <t>Who or what the composition is about. The composition can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of livestock, or a set of patients that share a common exposure).</t>
+  </si>
+  <si>
+    <t>For clinical documents, this is usually the patient.</t>
+  </si>
+  <si>
+    <t>Essential metadata for searching for the composition. Identifies who and/or what the composition/document is about.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="SBJ"].role[typeCode="PAT"]</t>
+  </si>
+  <si>
+    <t>.recordTarget</t>
+  </si>
+  <si>
+    <t>who.focus</t>
+  </si>
+  <si>
+    <t>Composition.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
+</t>
+  </si>
+  <si>
+    <t>Context of the Composition</t>
+  </si>
+  <si>
+    <t>Describes the clinical encounter or type of care this documentation is associated with.</t>
+  </si>
+  <si>
+    <t>Provides context for the composition and supports searching.</t>
+  </si>
+  <si>
+    <t>unique(highest(./outboundRelationship[typeCode="SUBJ" and isNormalActRelationship()], priorityNumber)/target[moodCode="EVN" and classCode=("ENC", "PCPR") and isNormalAct])</t>
+  </si>
+  <si>
+    <t>.componentOf.encompassingEncounter</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>Composition.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Composition editing time</t>
+  </si>
+  <si>
+    <t>The composition editing time, when the composition was last logically changed by the author.</t>
+  </si>
+  <si>
+    <t>The Last Modified Date on the composition may be after the date of the document was attested without being changed.</t>
+  </si>
+  <si>
+    <t>dateTime is used for tracking, organizing versions and searching.</t>
+  </si>
+  <si>
+    <t>.effectiveTime[type="TS"]</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>when.done</t>
+  </si>
+  <si>
+    <t>Composition.author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Device], CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+</t>
+  </si>
+  <si>
+    <t>Who and/or what authored the composition</t>
+  </si>
+  <si>
+    <t>Identifies who is responsible for the information in the composition, not necessarily who typed it in.</t>
+  </si>
+  <si>
+    <t>Identifies who is responsible for the content.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="AUT"].role[classCode="ASSIGNED"]</t>
+  </si>
+  <si>
+    <t>.author.assignedAuthor</t>
+  </si>
+  <si>
+    <t>who.author</t>
+  </si>
+  <si>
+    <t>Composition.title</t>
   </si>
   <si>
     <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Composition.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Composition.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Composition.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Composition.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Composition.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Composition.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Composition.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Composition.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Composition.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Composition.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Composition.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Composition.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Composition.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Logical identifier of composition (version-independent)</t>
-  </si>
-  <si>
-    <t>Logical identifier for the composition, assigned when created. This identifier stays constant as the composition is changed over time.</t>
-  </si>
-  <si>
-    <t>See discussion in resource definition for how these relate.</t>
-  </si>
-  <si>
-    <t>Document.id / Document.setId</t>
-  </si>
-  <si>
-    <t>.setId</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Composition.status</t>
-  </si>
-  <si>
-    <t>preliminary | final | amended | entered-in-error</t>
-  </si>
-  <si>
-    <t>The workflow/clinical status of this composition. The status is a marker for the clinical standing of the document.</t>
-  </si>
-  <si>
-    <t>If a composition is marked as withdrawn, the compositions/documents in the series, or data from the composition or document series, should never be displayed to a user without being clearly marked as untrustworthy. The flag "entered-in-error" is why this element is labeled as a modifier of other elements. 
-Some reporting work flows require that the original narrative of a final document never be altered; instead, only new narrative can be added. The composition resource has no explicit status for explicitly noting whether this business rule is in effect. This would be handled by an extension if required.</t>
-  </si>
-  <si>
-    <t>Need to be able to mark interim, amended, or withdrawn compositions or documents.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The workflow/clinical status of the composition.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/composition-status</t>
-  </si>
-  <si>
-    <t>interim: .completionCode="IN" &amp; ./statusCode[isNormalDatatype()]="active";  final: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and not(./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseComposition", code) and isNormalAct()]);  amended: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and ./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseComposition", code) and isNormalAct() and statusCode="completed"];  withdrawn : .completionCode=NI &amp;&amp;  ./statusCode[isNormalDatatype()]="obsolete"</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Composition.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Kind of composition (LOINC if possible)</t>
-  </si>
-  <si>
-    <t>Specifies the particular kind of composition (e.g. History and Physical, Discharge Summary, Progress Note). This usually equates to the purpose of making the composition.</t>
-  </si>
-  <si>
-    <t>For Composition type, LOINC is ubiquitous and strongly endorsed by HL7. Most implementation guides will require a specific LOINC code, or use LOINC as an extensible binding.</t>
-  </si>
-  <si>
-    <t>Key metadata element describing the composition, used in searching/filtering.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>Type of a composition.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/doc-typecodes</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>Composition.class</t>
-  </si>
-  <si>
-    <t>Categorization of Composition</t>
-  </si>
-  <si>
-    <t>A categorization for the type of the composition - helps for indexing and searching. This may be implied by or derived from the code specified in the Composition Type.</t>
-  </si>
-  <si>
-    <t>This is a metadata field from [XDS/MHD](http://wiki.ihe.net/index.php?title=Mobile_access_to_Health_Documents_(MHD)).</t>
-  </si>
-  <si>
-    <t>Helps humans to assess whether the composition is of interest when viewing an index of compositions or documents.</t>
-  </si>
-  <si>
-    <t>High-level kind of a clinical document at a macro level.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/doc-classcodes</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>Composition.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
-</t>
-  </si>
-  <si>
-    <t>Who and/or what the composition is about</t>
-  </si>
-  <si>
-    <t>Who or what the composition is about. The composition can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of livestock, or a set of patients that share a common exposure).</t>
-  </si>
-  <si>
-    <t>For clinical documents, this is usually the patient.</t>
-  </si>
-  <si>
-    <t>Essential metadata for searching for the composition. Identifies who and/or what the composition/document is about.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="SBJ"].role[typeCode="PAT"]</t>
-  </si>
-  <si>
-    <t>.recordTarget</t>
-  </si>
-  <si>
-    <t>who.focus</t>
-  </si>
-  <si>
-    <t>Composition.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
-</t>
-  </si>
-  <si>
-    <t>Context of the Composition</t>
-  </si>
-  <si>
-    <t>Describes the clinical encounter or type of care this documentation is associated with.</t>
-  </si>
-  <si>
-    <t>Provides context for the composition and supports searching.</t>
-  </si>
-  <si>
-    <t>unique(highest(./outboundRelationship[typeCode="SUBJ" and isNormalActRelationship()], priorityNumber)/target[moodCode="EVN" and classCode=("ENC", "PCPR") and isNormalAct])</t>
-  </si>
-  <si>
-    <t>.componentOf.encompassingEncounter</t>
-  </si>
-  <si>
-    <t>context</t>
-  </si>
-  <si>
-    <t>Composition.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Composition editing time</t>
-  </si>
-  <si>
-    <t>The composition editing time, when the composition was last logically changed by the author.</t>
-  </si>
-  <si>
-    <t>The Last Modified Date on the composition may be after the date of the document was attested without being changed.</t>
-  </si>
-  <si>
-    <t>dateTime is used for tracking, organizing versions and searching.</t>
-  </si>
-  <si>
-    <t>.effectiveTime[type="TS"]</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>when.done</t>
-  </si>
-  <si>
-    <t>Composition.author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Device], CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
-</t>
-  </si>
-  <si>
-    <t>Who and/or what authored the composition</t>
-  </si>
-  <si>
-    <t>Identifies who is responsible for the information in the composition, not necessarily who typed it in.</t>
-  </si>
-  <si>
-    <t>Identifies who is responsible for the content.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="AUT"].role[classCode="ASSIGNED"]</t>
-  </si>
-  <si>
-    <t>.author.assignedAuthor</t>
-  </si>
-  <si>
-    <t>who.author</t>
-  </si>
-  <si>
-    <t>Composition.title</t>
-  </si>
-  <si>
     <t>Human Readable name/title</t>
   </si>
   <si>
@@ -761,7 +650,22 @@
     <t>Composition.attester.id</t>
   </si>
   <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
     <t>Composition.attester.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Composition.attester.modifierExtension</t>
@@ -1394,7 +1298,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM71"/>
+  <dimension ref="A1:AM64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1426,11 +1330,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="62.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.51953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1896,10 +1800,10 @@
         <v>39</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>63</v>
@@ -1910,7 +1814,9 @@
       <c r="L5" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" t="s" s="2">
+        <v>66</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>39</v>
@@ -1959,7 +1865,7 @@
         <v>39</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>40</v>
@@ -1974,7 +1880,7 @@
         <v>39</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>39</v>
@@ -1989,14 +1895,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>39</v>
@@ -2008,16 +1914,16 @@
         <v>39</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2043,37 +1949,37 @@
         <v>39</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AE6" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>39</v>
@@ -2082,7 +1988,7 @@
         <v>39</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>39</v>
@@ -2093,11 +1999,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2113,19 +2019,19 @@
         <v>39</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2174,19 +2080,23 @@
       <c r="AD7" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AF7" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AG7" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH7" t="s" s="2">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>39</v>
@@ -2197,18 +2107,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>39</v>
@@ -2217,19 +2127,19 @@
         <v>39</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2278,11 +2188,15 @@
       <c r="AD8" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE8" s="2"/>
+      <c r="AE8" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="AF8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG8" s="2"/>
+      <c r="AG8" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH8" t="s" s="2">
         <v>39</v>
       </c>
@@ -2290,7 +2204,7 @@
         <v>39</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>39</v>
@@ -2301,11 +2215,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2321,19 +2235,19 @@
         <v>39</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2382,11 +2296,15 @@
       <c r="AD9" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE9" s="2"/>
+      <c r="AE9" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="AF9" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG9" s="2"/>
+      <c r="AG9" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH9" t="s" s="2">
         <v>39</v>
       </c>
@@ -2394,7 +2312,7 @@
         <v>39</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>39</v>
@@ -2405,11 +2323,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2422,22 +2340,22 @@
         <v>39</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2463,13 +2381,13 @@
         <v>39</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>39</v>
@@ -2486,11 +2404,15 @@
       <c r="AD10" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>39</v>
       </c>
@@ -2498,7 +2420,7 @@
         <v>39</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>39</v>
@@ -2509,7 +2431,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2520,7 +2442,7 @@
         <v>40</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>39</v>
@@ -2532,16 +2454,16 @@
         <v>51</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2567,13 +2489,13 @@
         <v>39</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>39</v>
@@ -2602,18 +2524,18 @@
         <v>39</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>39</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2621,7 +2543,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>50</v>
@@ -2636,18 +2558,20 @@
         <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>39</v>
       </c>
@@ -2671,13 +2595,13 @@
         <v>39</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>39</v>
@@ -2694,15 +2618,11 @@
       <c r="AD12" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE12" t="s" s="2">
-        <v>111</v>
-      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG12" s="2"/>
       <c r="AH12" t="s" s="2">
         <v>39</v>
       </c>
@@ -2710,18 +2630,18 @@
         <v>39</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>39</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2729,7 +2649,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>50</v>
@@ -2741,21 +2661,23 @@
         <v>39</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>39</v>
       </c>
@@ -2779,13 +2701,13 @@
         <v>39</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>39</v>
@@ -2802,15 +2724,11 @@
       <c r="AD13" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE13" t="s" s="2">
-        <v>119</v>
-      </c>
+      <c r="AE13" s="2"/>
       <c r="AF13" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG13" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG13" s="2"/>
       <c r="AH13" t="s" s="2">
         <v>39</v>
       </c>
@@ -2818,22 +2736,22 @@
         <v>39</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>39</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2849,21 +2767,23 @@
         <v>39</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>39</v>
       </c>
@@ -2887,13 +2807,13 @@
         <v>39</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>39</v>
@@ -2910,45 +2830,41 @@
       <c r="AD14" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE14" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="AE14" s="2"/>
       <c r="AF14" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG14" s="2"/>
       <c r="AH14" t="s" s="2">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>39</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>39</v>
@@ -2957,21 +2873,23 @@
         <v>39</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>39</v>
       </c>
@@ -3018,15 +2936,11 @@
       <c r="AD15" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE15" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="AE15" s="2"/>
       <c r="AF15" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG15" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG15" s="2"/>
       <c r="AH15" t="s" s="2">
         <v>39</v>
       </c>
@@ -3034,29 +2948,29 @@
         <v>39</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>39</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>39</v>
@@ -3065,21 +2979,21 @@
         <v>39</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>39</v>
       </c>
@@ -3126,15 +3040,11 @@
       <c r="AD16" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE16" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="AE16" s="2"/>
       <c r="AF16" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG16" s="2"/>
       <c r="AH16" t="s" s="2">
         <v>39</v>
       </c>
@@ -3142,52 +3052,54 @@
         <v>39</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>39</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="I17" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>39</v>
       </c>
@@ -3234,15 +3146,11 @@
       <c r="AD17" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE17" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="AE17" s="2"/>
       <c r="AF17" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG17" s="2"/>
       <c r="AH17" t="s" s="2">
         <v>39</v>
       </c>
@@ -3250,18 +3158,18 @@
         <v>39</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>39</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3269,10 +3177,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>39</v>
@@ -3284,18 +3192,18 @@
         <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>39</v>
       </c>
@@ -3354,18 +3262,18 @@
         <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>151</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3382,26 +3290,24 @@
         <v>39</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>39</v>
       </c>
@@ -3425,13 +3331,13 @@
         <v>39</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>39</v>
@@ -3460,18 +3366,18 @@
         <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>67</v>
+        <v>185</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>161</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3479,7 +3385,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>50</v>
@@ -3488,26 +3394,24 @@
         <v>39</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>39</v>
       </c>
@@ -3531,13 +3435,13 @@
         <v>39</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>39</v>
@@ -3566,18 +3470,18 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>173</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3588,7 +3492,7 @@
         <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>39</v>
@@ -3600,19 +3504,19 @@
         <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>39</v>
@@ -3637,13 +3541,13 @@
         <v>39</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>39</v>
@@ -3669,21 +3573,21 @@
         <v>39</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>173</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3691,7 +3595,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>50</v>
@@ -3703,23 +3607,19 @@
         <v>39</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>39</v>
       </c>
@@ -3766,11 +3666,15 @@
       <c r="AD22" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE22" s="2"/>
+      <c r="AE22" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG22" s="2"/>
+      <c r="AG22" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH22" t="s" s="2">
         <v>39</v>
       </c>
@@ -3778,29 +3682,29 @@
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>190</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>39</v>
@@ -3809,21 +3713,21 @@
         <v>39</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>193</v>
+        <v>97</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>39</v>
       </c>
@@ -3870,11 +3774,15 @@
       <c r="AD23" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE23" s="2"/>
+      <c r="AE23" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG23" s="2"/>
+      <c r="AG23" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH23" t="s" s="2">
         <v>39</v>
       </c>
@@ -3882,54 +3790,52 @@
         <v>39</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>198</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>39</v>
+        <v>210</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>39</v>
       </c>
@@ -3976,11 +3882,15 @@
       <c r="AD24" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE24" s="2"/>
+      <c r="AE24" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="AF24" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG24" s="2"/>
+      <c r="AG24" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH24" t="s" s="2">
         <v>39</v>
       </c>
@@ -3988,18 +3898,18 @@
         <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>206</v>
+        <v>39</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>207</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4022,17 +3932,19 @@
         <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N25" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>39</v>
@@ -4057,13 +3969,13 @@
         <v>39</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>39</v>
+        <v>219</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>39</v>
@@ -4092,18 +4004,18 @@
         <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>215</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4111,7 +4023,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>50</v>
@@ -4126,18 +4038,18 @@
         <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>39</v>
       </c>
@@ -4196,10 +4108,10 @@
         <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>39</v>
@@ -4207,7 +4119,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4224,24 +4136,24 @@
         <v>39</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>113</v>
+        <v>229</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>39</v>
       </c>
@@ -4265,13 +4177,13 @@
         <v>39</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>226</v>
+        <v>39</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>227</v>
+        <v>39</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>39</v>
@@ -4300,18 +4212,18 @@
         <v>39</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>39</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4322,7 +4234,7 @@
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>39</v>
@@ -4334,19 +4246,19 @@
         <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>39</v>
@@ -4403,13 +4315,13 @@
         <v>39</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>235</v>
+        <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>39</v>
@@ -4417,7 +4329,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4428,7 +4340,7 @@
         <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>39</v>
@@ -4437,18 +4349,20 @@
         <v>39</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>64</v>
+        <v>245</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>39</v>
@@ -4496,26 +4410,22 @@
       <c r="AD29" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE29" t="s" s="2">
-        <v>66</v>
-      </c>
+      <c r="AE29" s="2"/>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG29" s="2"/>
       <c r="AH29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>67</v>
+        <v>248</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>39</v>
+        <v>249</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>39</v>
@@ -4523,18 +4433,18 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>39</v>
@@ -4546,17 +4456,15 @@
         <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>71</v>
+        <v>203</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>39</v>
@@ -4605,13 +4513,13 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>39</v>
@@ -4620,7 +4528,7 @@
         <v>39</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>39</v>
@@ -4631,11 +4539,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>241</v>
+        <v>95</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4648,22 +4556,22 @@
         <v>39</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4713,7 +4621,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4728,7 +4636,7 @@
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>39</v>
@@ -4739,15 +4647,15 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>39</v>
+        <v>210</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>41</v>
@@ -4756,26 +4664,24 @@
         <v>39</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>245</v>
+        <v>102</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>39</v>
       </c>
@@ -4799,13 +4705,13 @@
         <v>39</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>249</v>
+        <v>39</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>250</v>
+        <v>39</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>39</v>
@@ -4822,11 +4728,15 @@
       <c r="AD32" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE32" s="2"/>
+      <c r="AE32" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG32" s="2"/>
+      <c r="AG32" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH32" t="s" s="2">
         <v>39</v>
       </c>
@@ -4834,10 +4744,10 @@
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>251</v>
+        <v>93</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>39</v>
@@ -4853,7 +4763,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>50</v>
@@ -4868,7 +4778,7 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>254</v>
@@ -4876,10 +4786,10 @@
       <c r="L33" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M33" s="2"/>
-      <c r="N33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>256</v>
       </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>39</v>
       </c>
@@ -4903,13 +4813,13 @@
         <v>39</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>39</v>
+        <v>257</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>39</v>
@@ -4938,10 +4848,10 @@
         <v>39</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>39</v>
@@ -4949,7 +4859,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4957,7 +4867,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>50</v>
@@ -4972,18 +4882,16 @@
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
-        <v>263</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>39</v>
       </c>
@@ -5042,13 +4950,13 @@
         <v>39</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>266</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" hidden="true">
@@ -5064,7 +4972,7 @@
         <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>39</v>
@@ -5076,19 +4984,19 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>39</v>
@@ -5145,13 +5053,13 @@
         <v>39</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>39</v>
@@ -5159,7 +5067,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5170,7 +5078,7 @@
         <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>39</v>
@@ -5179,20 +5087,18 @@
         <v>39</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>276</v>
+        <v>203</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>39</v>
@@ -5240,22 +5146,26 @@
       <c r="AD36" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE36" s="2"/>
+      <c r="AE36" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG36" s="2"/>
+      <c r="AG36" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>235</v>
+        <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>279</v>
+        <v>122</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>280</v>
+        <v>39</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>39</v>
@@ -5263,18 +5173,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>39</v>
@@ -5286,15 +5196,17 @@
         <v>39</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>39</v>
@@ -5343,13 +5255,13 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>66</v>
+        <v>208</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>39</v>
@@ -5358,7 +5270,7 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>39</v>
@@ -5369,11 +5281,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5386,22 +5298,22 @@
         <v>39</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>72</v>
+        <v>211</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5451,7 +5363,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5466,7 +5378,7 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>39</v>
@@ -5477,11 +5389,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>241</v>
+        <v>39</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5494,22 +5406,22 @@
         <v>39</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>141</v>
+        <v>278</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>73</v>
+        <v>280</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5535,13 +5447,13 @@
         <v>39</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>39</v>
+        <v>281</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>39</v>
+        <v>282</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>39</v>
@@ -5558,15 +5470,11 @@
       <c r="AD39" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE39" t="s" s="2">
-        <v>243</v>
-      </c>
+      <c r="AE39" s="2"/>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG39" s="2"/>
       <c r="AH39" t="s" s="2">
         <v>39</v>
       </c>
@@ -5574,10 +5482,10 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>39</v>
@@ -5585,7 +5493,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5593,7 +5501,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>50</v>
@@ -5608,7 +5516,7 @@
         <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>113</v>
+        <v>284</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>285</v>
@@ -5616,9 +5524,7 @@
       <c r="L40" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>287</v>
-      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>39</v>
@@ -5643,13 +5549,13 @@
         <v>39</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>288</v>
+        <v>39</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>289</v>
+        <v>39</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>39</v>
@@ -5678,10 +5584,10 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>290</v>
+        <v>169</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>291</v>
+        <v>169</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>39</v>
@@ -5689,7 +5595,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5697,10 +5603,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>39</v>
@@ -5712,13 +5618,13 @@
         <v>51</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>293</v>
+        <v>146</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5780,10 +5686,10 @@
         <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>297</v>
+        <v>122</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>39</v>
@@ -5791,7 +5697,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5811,23 +5717,19 @@
         <v>39</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>39</v>
       </c>
@@ -5883,13 +5785,13 @@
         <v>39</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>39</v>
@@ -5897,7 +5799,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5920,13 +5822,13 @@
         <v>39</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5977,7 +5879,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -5992,7 +5894,7 @@
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>39</v>
@@ -6003,11 +5905,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6026,16 +5928,16 @@
         <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>72</v>
+        <v>207</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6085,7 +5987,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -6100,7 +6002,7 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>39</v>
@@ -6111,11 +6013,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6134,16 +6036,16 @@
         <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6193,7 +6095,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6208,7 +6110,7 @@
         <v>39</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>39</v>
@@ -6219,18 +6121,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>39</v>
+        <v>301</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>39</v>
@@ -6239,21 +6141,23 @@
         <v>39</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>39</v>
       </c>
@@ -6277,13 +6181,13 @@
         <v>39</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>312</v>
+        <v>39</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>313</v>
+        <v>39</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>39</v>
@@ -6312,10 +6216,10 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>39</v>
@@ -6323,7 +6227,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6343,19 +6247,23 @@
         <v>39</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>315</v>
+        <v>125</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>39</v>
       </c>
@@ -6379,13 +6287,13 @@
         <v>39</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>39</v>
+        <v>311</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>39</v>
+        <v>312</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>39</v>
@@ -6414,10 +6322,10 @@
         <v>39</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>39</v>
@@ -6425,7 +6333,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6436,7 +6344,7 @@
         <v>40</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>39</v>
@@ -6445,18 +6353,20 @@
         <v>39</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>39</v>
@@ -6510,16 +6420,16 @@
       </c>
       <c r="AG48" s="2"/>
       <c r="AH48" t="s" s="2">
-        <v>39</v>
+        <v>317</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>67</v>
+        <v>318</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>39</v>
@@ -6527,7 +6437,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6538,28 +6448,32 @@
         <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>230</v>
+        <v>69</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>39</v>
       </c>
@@ -6583,13 +6497,13 @@
         <v>39</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>39</v>
+        <v>324</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>39</v>
+        <v>325</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>39</v>
@@ -6615,21 +6529,21 @@
         <v>39</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>325</v>
+        <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>326</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>327</v>
+        <v>122</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>39</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6652,16 +6566,20 @@
         <v>39</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>64</v>
+        <v>328</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>39</v>
       </c>
@@ -6685,13 +6603,13 @@
         <v>39</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>39</v>
+        <v>332</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>39</v>
+        <v>333</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>39</v>
@@ -6708,15 +6626,11 @@
       <c r="AD50" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE50" t="s" s="2">
-        <v>66</v>
-      </c>
+      <c r="AE50" s="2"/>
       <c r="AF50" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG50" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG50" s="2"/>
       <c r="AH50" t="s" s="2">
         <v>39</v>
       </c>
@@ -6724,10 +6638,10 @@
         <v>39</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>67</v>
+        <v>334</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>39</v>
@@ -6735,11 +6649,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6758,16 +6672,16 @@
         <v>39</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>70</v>
+        <v>336</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>71</v>
+        <v>337</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>72</v>
+        <v>338</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>73</v>
+        <v>339</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -6816,26 +6730,22 @@
       <c r="AD51" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE51" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="AE51" s="2"/>
       <c r="AF51" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG51" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG51" s="2"/>
       <c r="AH51" t="s" s="2">
-        <v>39</v>
+        <v>340</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>67</v>
+        <v>341</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>39</v>
+        <v>342</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>39</v>
@@ -6843,41 +6753,43 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>241</v>
+        <v>39</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>141</v>
+        <v>344</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>242</v>
+        <v>345</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>39</v>
       </c>
@@ -6901,13 +6813,13 @@
         <v>39</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>39</v>
+        <v>348</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>39</v>
+        <v>349</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>39</v>
@@ -6924,26 +6836,22 @@
       <c r="AD52" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE52" t="s" s="2">
-        <v>243</v>
-      </c>
+      <c r="AE52" s="2"/>
       <c r="AF52" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG52" s="2"/>
       <c r="AH52" t="s" s="2">
-        <v>39</v>
+        <v>340</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>136</v>
+        <v>350</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>39</v>
@@ -6951,18 +6859,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>332</v>
+        <v>39</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>39</v>
@@ -6974,20 +6882,18 @@
         <v>39</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>39</v>
       </c>
@@ -7040,16 +6946,16 @@
       </c>
       <c r="AG53" s="2"/>
       <c r="AH53" t="s" s="2">
-        <v>39</v>
+        <v>317</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>220</v>
+        <v>295</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>221</v>
+        <v>355</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>39</v>
@@ -7057,7 +6963,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7080,20 +6986,16 @@
         <v>39</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>338</v>
+        <v>203</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>39</v>
       </c>
@@ -7117,13 +7019,13 @@
         <v>39</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>342</v>
+        <v>39</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>343</v>
+        <v>39</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>39</v>
@@ -7140,11 +7042,15 @@
       <c r="AD54" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE54" s="2"/>
+      <c r="AE54" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG54" s="2"/>
+      <c r="AG54" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH54" t="s" s="2">
         <v>39</v>
       </c>
@@ -7152,10 +7058,10 @@
         <v>39</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>39</v>
@@ -7163,18 +7069,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>39</v>
@@ -7186,16 +7092,16 @@
         <v>39</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>345</v>
+        <v>97</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>346</v>
+        <v>207</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>347</v>
+        <v>99</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7244,22 +7150,26 @@
       <c r="AD55" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE55" s="2"/>
+      <c r="AE55" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG55" s="2"/>
+      <c r="AG55" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH55" t="s" s="2">
-        <v>348</v>
+        <v>39</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>349</v>
+        <v>122</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>349</v>
+        <v>39</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>39</v>
@@ -7267,18 +7177,18 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>39</v>
+        <v>210</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>39</v>
@@ -7290,20 +7200,18 @@
         <v>51</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>351</v>
+        <v>102</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>352</v>
+        <v>211</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>39</v>
       </c>
@@ -7327,13 +7235,13 @@
         <v>39</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>355</v>
+        <v>39</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>356</v>
+        <v>39</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>39</v>
@@ -7350,11 +7258,15 @@
       <c r="AD56" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE56" s="2"/>
+      <c r="AE56" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG56" s="2"/>
+      <c r="AG56" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH56" t="s" s="2">
         <v>39</v>
       </c>
@@ -7362,22 +7274,22 @@
         <v>39</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>357</v>
+        <v>93</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>173</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>39</v>
+        <v>301</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7396,19 +7308,19 @@
         <v>39</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>359</v>
+        <v>302</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>360</v>
+        <v>303</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>361</v>
+        <v>304</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>39</v>
@@ -7433,13 +7345,13 @@
         <v>39</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>363</v>
+        <v>39</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>364</v>
+        <v>39</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>39</v>
@@ -7468,10 +7380,10 @@
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>365</v>
+        <v>184</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>67</v>
+        <v>185</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>39</v>
@@ -7479,7 +7391,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7490,7 +7402,7 @@
         <v>40</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>39</v>
@@ -7502,18 +7414,20 @@
         <v>39</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>367</v>
+        <v>125</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>368</v>
+        <v>307</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>369</v>
+        <v>308</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>39</v>
       </c>
@@ -7537,13 +7451,13 @@
         <v>39</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>39</v>
+        <v>311</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>39</v>
+        <v>312</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>39</v>
@@ -7566,16 +7480,16 @@
       </c>
       <c r="AG58" s="2"/>
       <c r="AH58" t="s" s="2">
-        <v>371</v>
+        <v>39</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>372</v>
+        <v>133</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>373</v>
+        <v>134</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>39</v>
@@ -7583,7 +7497,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7606,20 +7520,18 @@
         <v>39</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>375</v>
+        <v>314</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>376</v>
+        <v>315</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>39</v>
       </c>
@@ -7643,13 +7555,13 @@
         <v>39</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>379</v>
+        <v>39</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>380</v>
+        <v>39</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>39</v>
@@ -7672,16 +7584,16 @@
       </c>
       <c r="AG59" s="2"/>
       <c r="AH59" t="s" s="2">
-        <v>371</v>
+        <v>317</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>381</v>
+        <v>318</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>67</v>
+        <v>318</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>39</v>
@@ -7689,7 +7601,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7700,30 +7612,32 @@
         <v>40</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>230</v>
+        <v>69</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>383</v>
+        <v>320</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>384</v>
+        <v>321</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>39</v>
       </c>
@@ -7747,13 +7661,13 @@
         <v>39</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>39</v>
+        <v>324</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>39</v>
+        <v>325</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>39</v>
@@ -7776,7 +7690,7 @@
       </c>
       <c r="AG60" s="2"/>
       <c r="AH60" t="s" s="2">
-        <v>348</v>
+        <v>39</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>39</v>
@@ -7785,15 +7699,15 @@
         <v>326</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>386</v>
+        <v>122</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>39</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7816,16 +7730,20 @@
         <v>39</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>64</v>
+        <v>328</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>39</v>
       </c>
@@ -7849,13 +7767,13 @@
         <v>39</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>39</v>
+        <v>332</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>39</v>
+        <v>333</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>39</v>
@@ -7872,15 +7790,11 @@
       <c r="AD61" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE61" t="s" s="2">
-        <v>66</v>
-      </c>
+      <c r="AE61" s="2"/>
       <c r="AF61" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG61" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG61" s="2"/>
       <c r="AH61" t="s" s="2">
         <v>39</v>
       </c>
@@ -7888,10 +7802,10 @@
         <v>39</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>67</v>
+        <v>334</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>39</v>
@@ -7899,11 +7813,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -7922,16 +7836,16 @@
         <v>39</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>71</v>
+        <v>337</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>72</v>
+        <v>338</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>73</v>
+        <v>339</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -7980,26 +7894,22 @@
       <c r="AD62" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE62" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="AE62" s="2"/>
       <c r="AF62" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG62" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG62" s="2"/>
       <c r="AH62" t="s" s="2">
-        <v>39</v>
+        <v>340</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>67</v>
+        <v>341</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>39</v>
+        <v>342</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>39</v>
@@ -8007,41 +7917,43 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>241</v>
+        <v>39</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>141</v>
+        <v>344</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>242</v>
+        <v>345</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>39</v>
       </c>
@@ -8065,13 +7977,13 @@
         <v>39</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>39</v>
+        <v>348</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>39</v>
+        <v>349</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>39</v>
@@ -8088,26 +8000,22 @@
       <c r="AD63" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE63" t="s" s="2">
-        <v>243</v>
-      </c>
+      <c r="AE63" s="2"/>
       <c r="AF63" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG63" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG63" s="2"/>
       <c r="AH63" t="s" s="2">
-        <v>39</v>
+        <v>340</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>136</v>
+        <v>350</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>39</v>
@@ -8115,18 +8023,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>332</v>
+        <v>39</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>39</v>
@@ -8138,20 +8046,18 @@
         <v>39</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>39</v>
       </c>
@@ -8204,759 +8110,23 @@
       </c>
       <c r="AG64" s="2"/>
       <c r="AH64" t="s" s="2">
-        <v>39</v>
+        <v>317</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>220</v>
+        <v>295</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>221</v>
+        <v>355</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE65" s="2"/>
-      <c r="AF65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG65" s="2"/>
-      <c r="AH65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE66" s="2"/>
-      <c r="AF66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG66" s="2"/>
-      <c r="AH66" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE67" s="2"/>
-      <c r="AF67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG67" s="2"/>
-      <c r="AH67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE68" s="2"/>
-      <c r="AF68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG68" s="2"/>
-      <c r="AH68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE69" s="2"/>
-      <c r="AF69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG69" s="2"/>
-      <c r="AH69" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE70" s="2"/>
-      <c r="AF70" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG70" s="2"/>
-      <c r="AH70" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE71" s="2"/>
-      <c r="AF71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG71" s="2"/>
-      <c r="AH71" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AL71" t="s" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL71">
+  <autoFilter ref="A1:AL64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8966,7 +8136,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI70">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/odh/shr-core-Composition.xlsx
+++ b/docs/odh/shr-core-Composition.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$78</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2567" uniqueCount="420">
   <si>
     <t>Path</t>
   </si>
@@ -206,13 +206,162 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>Composition.implicitRules</t>
+    <t>Composition.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Composition.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>sourcesystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SourceSystem-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>FHIR: This provides a minimal amount of Provenance information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.
+FHIM: Identifies the computer system that created the medical record. This optional field may also be used to indicate that the medical record was originally created by a different organization from the one that is currently storing or utilizing the record in that the assigning authority of the Id could be set to that originating organization. This property is optional, as some systems will assume that all records that it contains originated in that system, however it is anticipated that it will become increasingly commonplace for records from multiple systems and organizations will be comingled in order to provide a complete picture of the patient's health record.</t>
+  </si>
+  <si>
+    <t>Composition.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Composition.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
+  </si>
+  <si>
+    <t>Composition.meta.profile</t>
   </si>
   <si>
     <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Composition.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Composition.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Composition.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -242,9 +391,6 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>A human language.</t>
   </si>
   <si>
@@ -313,21 +459,7 @@
     <t>Composition.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -398,9 +530,6 @@
     <t>interim: .completionCode="IN" &amp; ./statusCode[isNormalDatatype()]="active";  final: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and not(./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseComposition", code) and isNormalAct()]);  amended: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and ./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseComposition", code) and isNormalAct() and statusCode="completed"];  withdrawn : .completionCode=NI &amp;&amp;  ./statusCode[isNormalDatatype()]="obsolete"</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -456,9 +585,6 @@
     <t>Helps humans to assess whether the composition is of interest when viewing an index of compositions or documents.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>High-level kind of a clinical document at a macro level.</t>
   </si>
   <si>
@@ -469,681 +595,722 @@
   </si>
   <si>
     <t>Composition.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DomainResource]]}
+</t>
+  </si>
+  <si>
+    <t>Who and/or what the composition is about</t>
+  </si>
+  <si>
+    <t>Who or what the composition is about. The composition can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of livestock, or a set of patients that share a common exposure).</t>
+  </si>
+  <si>
+    <t>For clinical documents, this is usually the patient.</t>
+  </si>
+  <si>
+    <t>Essential metadata for searching for the composition. Identifies who and/or what the composition/document is about.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="SBJ"].role[typeCode="PAT"]</t>
+  </si>
+  <si>
+    <t>.recordTarget</t>
+  </si>
+  <si>
+    <t>who.focus</t>
+  </si>
+  <si>
+    <t>Composition.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Encounter]]}
+</t>
+  </si>
+  <si>
+    <t>Context of the Composition</t>
+  </si>
+  <si>
+    <t>Describes the clinical encounter or type of care this documentation is associated with.</t>
+  </si>
+  <si>
+    <t>Provides context for the composition and supports searching.</t>
+  </si>
+  <si>
+    <t>unique(highest(./outboundRelationship[typeCode="SUBJ" and isNormalActRelationship()], priorityNumber)/target[moodCode="EVN" and classCode=("ENC", "PCPR") and isNormalAct])</t>
+  </si>
+  <si>
+    <t>.componentOf.encompassingEncounter</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>Composition.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Composition editing time</t>
+  </si>
+  <si>
+    <t>The composition editing time, when the composition was last logically changed by the author.</t>
+  </si>
+  <si>
+    <t>The Last Modified Date on the composition may be after the date of the document was attested without being changed.</t>
+  </si>
+  <si>
+    <t>dateTime is used for tracking, organizing versions and searching.</t>
+  </si>
+  <si>
+    <t>.effectiveTime[type="TS"]</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>when.done</t>
+  </si>
+  <si>
+    <t>Composition.author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelatedPerson]]}
+</t>
+  </si>
+  <si>
+    <t>Who and/or what authored the composition</t>
+  </si>
+  <si>
+    <t>Identifies who is responsible for the information in the composition, not necessarily who typed it in.</t>
+  </si>
+  <si>
+    <t>Identifies who is responsible for the content.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="AUT"].role[classCode="ASSIGNED"]</t>
+  </si>
+  <si>
+    <t>.author.assignedAuthor</t>
+  </si>
+  <si>
+    <t>who.author</t>
+  </si>
+  <si>
+    <t>Composition.title</t>
+  </si>
+  <si>
+    <t>Human Readable name/title</t>
+  </si>
+  <si>
+    <t>Official human-readable label for the composition.</t>
+  </si>
+  <si>
+    <t>For many compositions, the title is the same as the text or a display name of Composition.type (e.g. a "consultation" or "progress note"). Note that CDA does not make title mandatory, but there are no known cases where it is useful for title to be omitted, so it is mandatory here. Feedback on this requirement is welcome during the trial use period.</t>
+  </si>
+  <si>
+    <t>./title</t>
+  </si>
+  <si>
+    <t>.title</t>
+  </si>
+  <si>
+    <t>Composition.confidentiality</t>
+  </si>
+  <si>
+    <t>As defined by affinity domain</t>
+  </si>
+  <si>
+    <t>The code specifying the level of confidentiality of the Composition.</t>
+  </si>
+  <si>
+    <t>The exact use of this element, and enforcement and issues related to highly sensitive documents are out of scope for the base specification, and delegated to implementation profiles (see security section).
+This element is labeled as a modifier because highly confidential documents must not be treated as if they are not.</t>
+  </si>
+  <si>
+    <t>Codes specifying the level of confidentiality of the composition.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/v3-ConfidentialityClassification</t>
+  </si>
+  <si>
+    <t>.confidentialityCode</t>
+  </si>
+  <si>
+    <t>Composition.attester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Attests to accuracy of composition</t>
+  </si>
+  <si>
+    <t>A participant who has attested to the accuracy of the composition/document.</t>
+  </si>
+  <si>
+    <t>Only list each attester once.</t>
+  </si>
+  <si>
+    <t>Identifies responsibility for the accuracy of the composition content.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="AUTHEN"].role[classCode="ASSIGNED"]</t>
+  </si>
+  <si>
+    <t>.authenticator/.legalAuthenticator</t>
+  </si>
+  <si>
+    <t>Composition.attester.id</t>
+  </si>
+  <si>
+    <t>Composition.attester.extension</t>
+  </si>
+  <si>
+    <t>Composition.attester.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.attester.mode</t>
+  </si>
+  <si>
+    <t>personal | professional | legal | official</t>
+  </si>
+  <si>
+    <t>The type of attestation the authenticator offers.</t>
+  </si>
+  <si>
+    <t>Use more than one code where a single attester has more than one mode (professional and legal are often paired).</t>
+  </si>
+  <si>
+    <t>Indicates the level of authority of the attestation.</t>
+  </si>
+  <si>
+    <t>The way in which a person authenticated a composition.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/composition-attestation-mode</t>
+  </si>
+  <si>
+    <t>unique(./modeCode)</t>
+  </si>
+  <si>
+    <t>implied by .authenticator/.legalAuthenticator</t>
+  </si>
+  <si>
+    <t>Composition.attester.time</t>
+  </si>
+  <si>
+    <t>When the composition was attested</t>
+  </si>
+  <si>
+    <t>When the composition was attested by the party.</t>
+  </si>
+  <si>
+    <t>Identifies when the information in the composition was deemed accurate.  (Things may have changed since then.).</t>
+  </si>
+  <si>
+    <t>./time[type="TS" and isNormalDatatype()]</t>
+  </si>
+  <si>
+    <t>.authenticator.time</t>
+  </si>
+  <si>
+    <t>Composition.attester.party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization]]}
+</t>
+  </si>
+  <si>
+    <t>Who attested the composition</t>
+  </si>
+  <si>
+    <t>Who attested the composition in the specified way.</t>
+  </si>
+  <si>
+    <t>Identifies who has taken on the responsibility for accuracy of the composition content.</t>
+  </si>
+  <si>
+    <t>./role[classCode="ASSIGNED" and isNormalRole]/player[determinerCode="INST" and classCode=("DEV", "PSN") and isNormalEntity()] or ./role[classCode="ASSIGNED" and isNormalRole and not(player)]/scoper[determinerCode="INST" and classCode="ORG" and isNormalEntity()]</t>
+  </si>
+  <si>
+    <t>.authenticator.assignedEnttty</t>
+  </si>
+  <si>
+    <t>who.witness</t>
+  </si>
+  <si>
+    <t>Composition.custodian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization]]}
+</t>
+  </si>
+  <si>
+    <t>Organization which maintains the composition</t>
+  </si>
+  <si>
+    <t>Identifies the organization or group who is responsible for ongoing maintenance of and access to the composition/document information.</t>
+  </si>
+  <si>
+    <t>This is useful when documents are derived from a composition - provides guidance for how to get the latest version of the document. This is optional because this is sometimes not known by the authoring system, and can be inferred by context. However, it is important that this information be known when working with a derived document, so providing a custodian is encouraged.</t>
+  </si>
+  <si>
+    <t>Identifies where to go to find the current version, where to report issues, etc.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode="RCV"].role[classCode="CUST"].scoper[classCode="ORG" and determinerCode="INST"]</t>
+  </si>
+  <si>
+    <t>.custodian.assignedCustodian</t>
+  </si>
+  <si>
+    <t>Composition.relatesTo</t>
+  </si>
+  <si>
+    <t>Relationships to other compositions/documents</t>
+  </si>
+  <si>
+    <t>Relationships that this composition has with other compositions or documents that already exist.</t>
+  </si>
+  <si>
+    <t>A document is a version specific composition.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship</t>
+  </si>
+  <si>
+    <t>.relatedDocument</t>
+  </si>
+  <si>
+    <t>Composition.relatesTo.id</t>
+  </si>
+  <si>
+    <t>Composition.relatesTo.extension</t>
+  </si>
+  <si>
+    <t>Composition.relatesTo.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.relatesTo.code</t>
+  </si>
+  <si>
+    <t>replaces | transforms | signs | appends</t>
+  </si>
+  <si>
+    <t>The type of relationship that this composition has with anther composition or document.</t>
+  </si>
+  <si>
+    <t>If this document appends another document, then the document cannot be fully understood without also accessing the referenced document.</t>
+  </si>
+  <si>
+    <t>The type of relationship between documents.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/document-relationship-type</t>
+  </si>
+  <si>
+    <t>.outboundRelationship.typeCode</t>
+  </si>
+  <si>
+    <t>.relatedDocument.typeCode</t>
+  </si>
+  <si>
+    <t>Composition.relatesTo.target[x]</t>
+  </si>
+  <si>
+    <t>Identifier {[]} {[]}
+Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Composition]]}</t>
+  </si>
+  <si>
+    <t>Target of the relationship</t>
+  </si>
+  <si>
+    <t>The target composition/document of this relationship.</t>
+  </si>
+  <si>
+    <t>.target[classCode="DOC", moodCode="EVN"].id</t>
+  </si>
+  <si>
+    <t>.relatedDocument.id</t>
+  </si>
+  <si>
+    <t>Composition.event</t>
+  </si>
+  <si>
+    <t>The clinical service(s) being documented</t>
+  </si>
+  <si>
+    <t>The clinical service, such as a colonoscopy or an appendectomy, being documented.</t>
+  </si>
+  <si>
+    <t>The event needs to be consistent with the type element, though can provide further information if desired.</t>
+  </si>
+  <si>
+    <t>Provides context for the composition and creates a linkage between a resource describing an event and the composition created describing the event.</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode="SUBJ"].target[classCode&lt;'ACT']</t>
+  </si>
+  <si>
+    <t>.documentationOf.serviceEvent</t>
+  </si>
+  <si>
+    <t>Composition.event.id</t>
+  </si>
+  <si>
+    <t>Composition.event.extension</t>
+  </si>
+  <si>
+    <t>Composition.event.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.event.code</t>
+  </si>
+  <si>
+    <t>Code(s) that apply to the event being documented</t>
+  </si>
+  <si>
+    <t>This list of codes represents the main clinical acts, such as a colonoscopy or an appendectomy, being documented. In some cases, the event is inherent in the typeCode, such as a "History and Physical Report" in which the procedure being documented is necessarily a "History and Physical" act.</t>
+  </si>
+  <si>
+    <t>An event can further specialize the act inherent in the typeCode, such as where it is simply "Procedure Report" and the procedure was a "colonoscopy". If one or more eventCodes are included, they SHALL NOT conflict with the values inherent in the classCode, practiceSettingCode or typeCode, as such a conflict would create an ambiguous situation. This short list of codes is provided to be used as key words for certain types of queries.</t>
+  </si>
+  <si>
+    <t>This list of codes represents the main clinical acts being documented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/v3-ActCode</t>
+  </si>
+  <si>
+    <t>Composition.event.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The period covered by the documentation</t>
+  </si>
+  <si>
+    <t>The period of time covered by the documentation. There is no assertion that the documentation is a complete representation for this period, only that it documents events during this time.</t>
+  </si>
+  <si>
+    <t>Composition.event.detail</t>
+  </si>
+  <si>
+    <t>The event(s) being documented</t>
+  </si>
+  <si>
+    <t>The description and/or reference of the event(s) being documented. For example, this could be used to document such a colonoscopy or an appendectomy.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="SUBJ"].target</t>
+  </si>
+  <si>
+    <t>Composition.section</t>
+  </si>
+  <si>
+    <t>Composition is broken into sections</t>
+  </si>
+  <si>
+    <t>The root of the sections that make up the composition.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}</t>
+  </si>
+  <si>
+    <t>./outboundRelationship[typeCode="COMP" and isNormalActRelationship()]/target[moodCode="EVN" and classCode="DOCSECT" and isNormalAct]</t>
+  </si>
+  <si>
+    <t>.component.structuredBody.component.section</t>
+  </si>
+  <si>
+    <t>Composition.section.id</t>
+  </si>
+  <si>
+    <t>Composition.section.extension</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Author-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The actor who created the item and it responsible for the content (regardless of the information source or who recorded it). If only the author is given, it is assumed the author is the information source and the recorder.</t>
+  </si>
+  <si>
+    <t>Composition.section.modifierExtension</t>
+  </si>
+  <si>
+    <t>focalsubject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-FocalSubject-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The person or entity that the information in this resource relates to, if different than the person of record. The subject of information can be a reference or a code, the latter when the subject is described generically, for example, in terms of a relationship to the subject of record (e.g., wife).</t>
+  </si>
+  <si>
+    <t>Composition.section.modifierExtension.id</t>
+  </si>
+  <si>
+    <t>Composition.section.modifierExtension.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>Composition.section.modifierExtension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-FocalSubject-extension"/&gt;</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Composition.section.modifierExtension.valueReference</t>
+  </si>
+  <si>
+    <t>DomainResource</t>
+  </si>
+  <si>
+    <t>Parent class for any item in clinical or administrative health-related system. A DomainResource can belong to a single person's health record, or represent an entity that surfaces in multiple records, such as organizations, providers, payments, decision support artifacts, etc.
+Note to FHIR implementers: SHR includes Status and Identifier fields on DomainResource because these two attributes occur in almost every FHIR resource. The most significant exception are 3 or 4 resources that use an 'active' flag instead of coded status value. There is no apparent pattern to this inconsistency. FHIR resources that use a coded status have active and inactive as status values. In the spirit of providing a consistent object-oriented logical model for FHIR, SHR uses status across all domain resources.</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Composition.section.title</t>
+  </si>
+  <si>
+    <t>header
+labelcaption</t>
+  </si>
+  <si>
+    <t>Label for section (e.g. for ToC)</t>
+  </si>
+  <si>
+    <t>The label for this particular section.  This will be part of the rendered content for the document, and is often used to build a table of contents.</t>
+  </si>
+  <si>
+    <t>The title identifies the section for a human reader. The title must be consistent with the narrative of the resource that is the target of the section.content reference. Generally, sections SHOULD have titles, but in some documents, it is unnecessary or inappropriate. Typically, this is where a section has subsections that have their own adequately distinguishing title,  or documents that only have a single section. Most Implementation Guides will make section title to be a required element.</t>
+  </si>
+  <si>
+    <t>Section headings are often standardized for different types of documents.  They give guidance to humans on how the document is organized.</t>
+  </si>
+  <si>
+    <t>Composition.section.code</t>
+  </si>
+  <si>
+    <t>Classification of section (recommended)</t>
+  </si>
+  <si>
+    <t>A code identifying the kind of content contained within the section. This must be consistent with the section title.</t>
+  </si>
+  <si>
+    <t>The code identifies the section for an automated processor of the document. This is particularly relevant when using profiles to control the structure of the document.   If the section has content (instead of sub-sections), the section.code does not change the meaning or interpretation of the resource that is the content of the section in the comments for the section.code.</t>
+  </si>
+  <si>
+    <t>Provides computable standardized labels to topics within the document.</t>
+  </si>
+  <si>
+    <t>Classification of a section of a composition/document.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/doc-section-codes</t>
+  </si>
+  <si>
+    <t>Composition.section.text</t>
+  </si>
+  <si>
+    <t>Text summary of the section, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains the attested content of the section, used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative.</t>
+  </si>
+  <si>
+    <t>Document profiles may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmp-1
+</t>
+  </si>
+  <si>
+    <t>.text</t>
+  </si>
+  <si>
+    <t>Composition.section.mode</t>
+  </si>
+  <si>
+    <t>working | snapshot | changes</t>
+  </si>
+  <si>
+    <t>How the entry list was prepared - whether it is a working list that is suitable for being maintained on an ongoing basis, or if it represents a snapshot of a list of items from another source, or whether it is a prepared list where items may be marked as added, modified or deleted.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because a change list must not be mis-understood as a complete list.</t>
+  </si>
+  <si>
+    <t>Sections are used in various ways, and it must be known in what way it is safe to use the entries in them.</t>
+  </si>
+  <si>
+    <t>The processing mode that applies to this section.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/list-mode</t>
+  </si>
+  <si>
+    <t>.outBoundRelationship[typeCode=COMP].target[classCode=OBS"].value</t>
+  </si>
+  <si>
+    <t>Composition.section.orderedBy</t>
+  </si>
+  <si>
+    <t>Order of section entries</t>
+  </si>
+  <si>
+    <t>Specifies the order applied to the items in the section entries.</t>
+  </si>
+  <si>
+    <t>Applications SHOULD render ordered lists in the order provided, but MAY allow users to re-order based on their own preferences as well. If there is no order specified, the order is unknown, though there may still be some order.</t>
+  </si>
+  <si>
+    <t>Important for presentation and rendering.  Lists may be sorted to place more important information first or to group related entries.</t>
+  </si>
+  <si>
+    <t>What order applies to the items in the entry.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/list-order</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=COMP].sequenceNumber &gt; 1</t>
+  </si>
+  <si>
+    <t>Composition.section.entry</t>
+  </si>
+  <si>
+    <t>A reference to data that supports this section</t>
+  </si>
+  <si>
+    <t>A reference to the actual resource from which the narrative in the section is derived.</t>
+  </si>
+  <si>
+    <t>If there are no entries in the list, an emptyReason SHOULD be provided.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmp-2
+</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=COMP] or  .participation[typeCode=SBJ]</t>
+  </si>
+  <si>
+    <t>.entry</t>
+  </si>
+  <si>
+    <t>Composition.section.emptyReason</t>
+  </si>
+  <si>
+    <t>Why the section is empty</t>
+  </si>
+  <si>
+    <t>If the section is empty, why the list is empty. An empty section typically has some text explaining the empty reason.</t>
+  </si>
+  <si>
+    <t>The various reasons for an empty section make a significant interpretation to its interpretation. Note that this code is for use when the entire section content has been suppressed, and not for when individual items are omitted - implementers may consider using a text note or a flag on an entry in these cases.</t>
+  </si>
+  <si>
+    <t>Allows capturing things like "none exist" or "not asked" which can be important for most lists.</t>
+  </si>
+  <si>
+    <t>If a section is empty, why it is empty.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/list-empty-reason</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ,code&lt;{ListEmptyReason}].value[type=CD]</t>
+  </si>
+  <si>
+    <t>Composition.section.section</t>
+  </si>
+  <si>
+    <t>Nested Section</t>
+  </si>
+  <si>
+    <t>A nested sub-section within this section.</t>
+  </si>
+  <si>
+    <t>Nested sections are primarily used to help human readers navigate to particular portions of the document.</t>
+  </si>
+  <si>
+    <t>.component.section</t>
+  </si>
+  <si>
+    <t>Composition.section.section.id</t>
+  </si>
+  <si>
+    <t>Composition.section.section.extension</t>
+  </si>
+  <si>
+    <t>Composition.section.section.modifierExtension</t>
+  </si>
+  <si>
+    <t>Composition.section.section.title</t>
+  </si>
+  <si>
+    <t>Composition.section.section.code</t>
+  </si>
+  <si>
+    <t>Composition.section.section.text</t>
+  </si>
+  <si>
+    <t>Composition.section.section.mode</t>
+  </si>
+  <si>
+    <t>Composition.section.section.orderedBy</t>
+  </si>
+  <si>
+    <t>Composition.section.section.entry</t>
   </si>
   <si>
     <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
 </t>
-  </si>
-  <si>
-    <t>Who and/or what the composition is about</t>
-  </si>
-  <si>
-    <t>Who or what the composition is about. The composition can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of livestock, or a set of patients that share a common exposure).</t>
-  </si>
-  <si>
-    <t>For clinical documents, this is usually the patient.</t>
-  </si>
-  <si>
-    <t>Essential metadata for searching for the composition. Identifies who and/or what the composition/document is about.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="SBJ"].role[typeCode="PAT"]</t>
-  </si>
-  <si>
-    <t>.recordTarget</t>
-  </si>
-  <si>
-    <t>who.focus</t>
-  </si>
-  <si>
-    <t>Composition.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
-</t>
-  </si>
-  <si>
-    <t>Context of the Composition</t>
-  </si>
-  <si>
-    <t>Describes the clinical encounter or type of care this documentation is associated with.</t>
-  </si>
-  <si>
-    <t>Provides context for the composition and supports searching.</t>
-  </si>
-  <si>
-    <t>unique(highest(./outboundRelationship[typeCode="SUBJ" and isNormalActRelationship()], priorityNumber)/target[moodCode="EVN" and classCode=("ENC", "PCPR") and isNormalAct])</t>
-  </si>
-  <si>
-    <t>.componentOf.encompassingEncounter</t>
-  </si>
-  <si>
-    <t>context</t>
-  </si>
-  <si>
-    <t>Composition.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Composition editing time</t>
-  </si>
-  <si>
-    <t>The composition editing time, when the composition was last logically changed by the author.</t>
-  </si>
-  <si>
-    <t>The Last Modified Date on the composition may be after the date of the document was attested without being changed.</t>
-  </si>
-  <si>
-    <t>dateTime is used for tracking, organizing versions and searching.</t>
-  </si>
-  <si>
-    <t>.effectiveTime[type="TS"]</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>when.done</t>
-  </si>
-  <si>
-    <t>Composition.author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Device], CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
-</t>
-  </si>
-  <si>
-    <t>Who and/or what authored the composition</t>
-  </si>
-  <si>
-    <t>Identifies who is responsible for the information in the composition, not necessarily who typed it in.</t>
-  </si>
-  <si>
-    <t>Identifies who is responsible for the content.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="AUT"].role[classCode="ASSIGNED"]</t>
-  </si>
-  <si>
-    <t>.author.assignedAuthor</t>
-  </si>
-  <si>
-    <t>who.author</t>
-  </si>
-  <si>
-    <t>Composition.title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Human Readable name/title</t>
-  </si>
-  <si>
-    <t>Official human-readable label for the composition.</t>
-  </si>
-  <si>
-    <t>For many compositions, the title is the same as the text or a display name of Composition.type (e.g. a "consultation" or "progress note"). Note that CDA does not make title mandatory, but there are no known cases where it is useful for title to be omitted, so it is mandatory here. Feedback on this requirement is welcome during the trial use period.</t>
-  </si>
-  <si>
-    <t>./title</t>
-  </si>
-  <si>
-    <t>.title</t>
-  </si>
-  <si>
-    <t>Composition.confidentiality</t>
-  </si>
-  <si>
-    <t>As defined by affinity domain</t>
-  </si>
-  <si>
-    <t>The code specifying the level of confidentiality of the Composition.</t>
-  </si>
-  <si>
-    <t>The exact use of this element, and enforcement and issues related to highly sensitive documents are out of scope for the base specification, and delegated to implementation profiles (see security section).
-This element is labeled as a modifier because highly confidential documents must not be treated as if they are not.</t>
-  </si>
-  <si>
-    <t>Codes specifying the level of confidentiality of the composition.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/v3-ConfidentialityClassification</t>
-  </si>
-  <si>
-    <t>.confidentialityCode</t>
-  </si>
-  <si>
-    <t>Composition.attester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Attests to accuracy of composition</t>
-  </si>
-  <si>
-    <t>A participant who has attested to the accuracy of the composition/document.</t>
-  </si>
-  <si>
-    <t>Only list each attester once.</t>
-  </si>
-  <si>
-    <t>Identifies responsibility for the accuracy of the composition content.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="AUTHEN"].role[classCode="ASSIGNED"]</t>
-  </si>
-  <si>
-    <t>.authenticator/.legalAuthenticator</t>
-  </si>
-  <si>
-    <t>Composition.attester.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Composition.attester.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Composition.attester.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Composition.attester.mode</t>
-  </si>
-  <si>
-    <t>personal | professional | legal | official</t>
-  </si>
-  <si>
-    <t>The type of attestation the authenticator offers.</t>
-  </si>
-  <si>
-    <t>Use more than one code where a single attester has more than one mode (professional and legal are often paired).</t>
-  </si>
-  <si>
-    <t>Indicates the level of authority of the attestation.</t>
-  </si>
-  <si>
-    <t>The way in which a person authenticated a composition.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/composition-attestation-mode</t>
-  </si>
-  <si>
-    <t>unique(./modeCode)</t>
-  </si>
-  <si>
-    <t>implied by .authenticator/.legalAuthenticator</t>
-  </si>
-  <si>
-    <t>Composition.attester.time</t>
-  </si>
-  <si>
-    <t>When the composition was attested</t>
-  </si>
-  <si>
-    <t>When the composition was attested by the party.</t>
-  </si>
-  <si>
-    <t>Identifies when the information in the composition was deemed accurate.  (Things may have changed since then.).</t>
-  </si>
-  <si>
-    <t>./time[type="TS" and isNormalDatatype()]</t>
-  </si>
-  <si>
-    <t>.authenticator.time</t>
-  </si>
-  <si>
-    <t>Composition.attester.party</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
-</t>
-  </si>
-  <si>
-    <t>Who attested the composition</t>
-  </si>
-  <si>
-    <t>Who attested the composition in the specified way.</t>
-  </si>
-  <si>
-    <t>Identifies who has taken on the responsibility for accuracy of the composition content.</t>
-  </si>
-  <si>
-    <t>./role[classCode="ASSIGNED" and isNormalRole]/player[determinerCode="INST" and classCode=("DEV", "PSN") and isNormalEntity()] or ./role[classCode="ASSIGNED" and isNormalRole and not(player)]/scoper[determinerCode="INST" and classCode="ORG" and isNormalEntity()]</t>
-  </si>
-  <si>
-    <t>.authenticator.assignedEnttty</t>
-  </si>
-  <si>
-    <t>who.witness</t>
-  </si>
-  <si>
-    <t>Composition.custodian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
-</t>
-  </si>
-  <si>
-    <t>Organization which maintains the composition</t>
-  </si>
-  <si>
-    <t>Identifies the organization or group who is responsible for ongoing maintenance of and access to the composition/document information.</t>
-  </si>
-  <si>
-    <t>This is useful when documents are derived from a composition - provides guidance for how to get the latest version of the document. This is optional because this is sometimes not known by the authoring system, and can be inferred by context. However, it is important that this information be known when working with a derived document, so providing a custodian is encouraged.</t>
-  </si>
-  <si>
-    <t>Identifies where to go to find the current version, where to report issues, etc.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode="RCV"].role[classCode="CUST"].scoper[classCode="ORG" and determinerCode="INST"]</t>
-  </si>
-  <si>
-    <t>.custodian.assignedCustodian</t>
-  </si>
-  <si>
-    <t>Composition.relatesTo</t>
-  </si>
-  <si>
-    <t>Relationships to other compositions/documents</t>
-  </si>
-  <si>
-    <t>Relationships that this composition has with other compositions or documents that already exist.</t>
-  </si>
-  <si>
-    <t>A document is a version specific composition.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship</t>
-  </si>
-  <si>
-    <t>.relatedDocument</t>
-  </si>
-  <si>
-    <t>Composition.relatesTo.id</t>
-  </si>
-  <si>
-    <t>Composition.relatesTo.extension</t>
-  </si>
-  <si>
-    <t>Composition.relatesTo.modifierExtension</t>
-  </si>
-  <si>
-    <t>Composition.relatesTo.code</t>
-  </si>
-  <si>
-    <t>replaces | transforms | signs | appends</t>
-  </si>
-  <si>
-    <t>The type of relationship that this composition has with anther composition or document.</t>
-  </si>
-  <si>
-    <t>If this document appends another document, then the document cannot be fully understood without also accessing the referenced document.</t>
-  </si>
-  <si>
-    <t>The type of relationship between documents.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/document-relationship-type</t>
-  </si>
-  <si>
-    <t>.outboundRelationship.typeCode</t>
-  </si>
-  <si>
-    <t>.relatedDocument.typeCode</t>
-  </si>
-  <si>
-    <t>Composition.relatesTo.target[x]</t>
-  </si>
-  <si>
-    <t>Identifier {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Composition]]}</t>
-  </si>
-  <si>
-    <t>Target of the relationship</t>
-  </si>
-  <si>
-    <t>The target composition/document of this relationship.</t>
-  </si>
-  <si>
-    <t>.target[classCode="DOC", moodCode="EVN"].id</t>
-  </si>
-  <si>
-    <t>.relatedDocument.id</t>
-  </si>
-  <si>
-    <t>Composition.event</t>
-  </si>
-  <si>
-    <t>The clinical service(s) being documented</t>
-  </si>
-  <si>
-    <t>The clinical service, such as a colonoscopy or an appendectomy, being documented.</t>
-  </si>
-  <si>
-    <t>The event needs to be consistent with the type element, though can provide further information if desired.</t>
-  </si>
-  <si>
-    <t>Provides context for the composition and creates a linkage between a resource describing an event and the composition created describing the event.</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode="SUBJ"].target[classCode&lt;'ACT']</t>
-  </si>
-  <si>
-    <t>.documentationOf.serviceEvent</t>
-  </si>
-  <si>
-    <t>Composition.event.id</t>
-  </si>
-  <si>
-    <t>Composition.event.extension</t>
-  </si>
-  <si>
-    <t>Composition.event.modifierExtension</t>
-  </si>
-  <si>
-    <t>Composition.event.code</t>
-  </si>
-  <si>
-    <t>Code(s) that apply to the event being documented</t>
-  </si>
-  <si>
-    <t>This list of codes represents the main clinical acts, such as a colonoscopy or an appendectomy, being documented. In some cases, the event is inherent in the typeCode, such as a "History and Physical Report" in which the procedure being documented is necessarily a "History and Physical" act.</t>
-  </si>
-  <si>
-    <t>An event can further specialize the act inherent in the typeCode, such as where it is simply "Procedure Report" and the procedure was a "colonoscopy". If one or more eventCodes are included, they SHALL NOT conflict with the values inherent in the classCode, practiceSettingCode or typeCode, as such a conflict would create an ambiguous situation. This short list of codes is provided to be used as key words for certain types of queries.</t>
-  </si>
-  <si>
-    <t>This list of codes represents the main clinical acts being documented.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/v3-ActCode</t>
-  </si>
-  <si>
-    <t>Composition.event.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The period covered by the documentation</t>
-  </si>
-  <si>
-    <t>The period of time covered by the documentation. There is no assertion that the documentation is a complete representation for this period, only that it documents events during this time.</t>
-  </si>
-  <si>
-    <t>Composition.event.detail</t>
-  </si>
-  <si>
-    <t>The event(s) being documented</t>
-  </si>
-  <si>
-    <t>The description and/or reference of the event(s) being documented. For example, this could be used to document such a colonoscopy or an appendectomy.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="SUBJ"].target</t>
-  </si>
-  <si>
-    <t>Composition.section</t>
-  </si>
-  <si>
-    <t>Composition is broken into sections</t>
-  </si>
-  <si>
-    <t>The root of the sections that make up the composition.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}</t>
-  </si>
-  <si>
-    <t>./outboundRelationship[typeCode="COMP" and isNormalActRelationship()]/target[moodCode="EVN" and classCode="DOCSECT" and isNormalAct]</t>
-  </si>
-  <si>
-    <t>.component.structuredBody.component.section</t>
-  </si>
-  <si>
-    <t>Composition.section.id</t>
-  </si>
-  <si>
-    <t>Composition.section.extension</t>
-  </si>
-  <si>
-    <t>Composition.section.modifierExtension</t>
-  </si>
-  <si>
-    <t>Composition.section.title</t>
-  </si>
-  <si>
-    <t>header
-labelcaption</t>
-  </si>
-  <si>
-    <t>Label for section (e.g. for ToC)</t>
-  </si>
-  <si>
-    <t>The label for this particular section.  This will be part of the rendered content for the document, and is often used to build a table of contents.</t>
-  </si>
-  <si>
-    <t>The title identifies the section for a human reader. The title must be consistent with the narrative of the resource that is the target of the section.content reference. Generally, sections SHOULD have titles, but in some documents, it is unnecessary or inappropriate. Typically, this is where a section has subsections that have their own adequately distinguishing title,  or documents that only have a single section. Most Implementation Guides will make section title to be a required element.</t>
-  </si>
-  <si>
-    <t>Section headings are often standardized for different types of documents.  They give guidance to humans on how the document is organized.</t>
-  </si>
-  <si>
-    <t>Composition.section.code</t>
-  </si>
-  <si>
-    <t>Classification of section (recommended)</t>
-  </si>
-  <si>
-    <t>A code identifying the kind of content contained within the section. This must be consistent with the section title.</t>
-  </si>
-  <si>
-    <t>The code identifies the section for an automated processor of the document. This is particularly relevant when using profiles to control the structure of the document.   If the section has content (instead of sub-sections), the section.code does not change the meaning or interpretation of the resource that is the content of the section in the comments for the section.code.</t>
-  </si>
-  <si>
-    <t>Provides computable standardized labels to topics within the document.</t>
-  </si>
-  <si>
-    <t>Classification of a section of a composition/document.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/doc-section-codes</t>
-  </si>
-  <si>
-    <t>Composition.section.text</t>
-  </si>
-  <si>
-    <t>Text summary of the section, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains the attested content of the section, used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative.</t>
-  </si>
-  <si>
-    <t>Document profiles may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmp-1
-</t>
-  </si>
-  <si>
-    <t>.text</t>
-  </si>
-  <si>
-    <t>Composition.section.mode</t>
-  </si>
-  <si>
-    <t>working | snapshot | changes</t>
-  </si>
-  <si>
-    <t>How the entry list was prepared - whether it is a working list that is suitable for being maintained on an ongoing basis, or if it represents a snapshot of a list of items from another source, or whether it is a prepared list where items may be marked as added, modified or deleted.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because a change list must not be mis-understood as a complete list.</t>
-  </si>
-  <si>
-    <t>Sections are used in various ways, and it must be known in what way it is safe to use the entries in them.</t>
-  </si>
-  <si>
-    <t>The processing mode that applies to this section.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/list-mode</t>
-  </si>
-  <si>
-    <t>.outBoundRelationship[typeCode=COMP].target[classCode=OBS"].value</t>
-  </si>
-  <si>
-    <t>Composition.section.orderedBy</t>
-  </si>
-  <si>
-    <t>Order of section entries</t>
-  </si>
-  <si>
-    <t>Specifies the order applied to the items in the section entries.</t>
-  </si>
-  <si>
-    <t>Applications SHOULD render ordered lists in the order provided, but MAY allow users to re-order based on their own preferences as well. If there is no order specified, the order is unknown, though there may still be some order.</t>
-  </si>
-  <si>
-    <t>Important for presentation and rendering.  Lists may be sorted to place more important information first or to group related entries.</t>
-  </si>
-  <si>
-    <t>What order applies to the items in the entry.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/list-order</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COMP].sequenceNumber &gt; 1</t>
-  </si>
-  <si>
-    <t>Composition.section.entry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DomainResource]]}
-</t>
-  </si>
-  <si>
-    <t>A reference to data that supports this section</t>
-  </si>
-  <si>
-    <t>A reference to the actual resource from which the narrative in the section is derived.</t>
-  </si>
-  <si>
-    <t>If there are no entries in the list, an emptyReason SHOULD be provided.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmp-2
-</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COMP] or  .participation[typeCode=SBJ]</t>
-  </si>
-  <si>
-    <t>.entry</t>
-  </si>
-  <si>
-    <t>Composition.section.emptyReason</t>
-  </si>
-  <si>
-    <t>Why the section is empty</t>
-  </si>
-  <si>
-    <t>If the section is empty, why the list is empty. An empty section typically has some text explaining the empty reason.</t>
-  </si>
-  <si>
-    <t>The various reasons for an empty section make a significant interpretation to its interpretation. Note that this code is for use when the entire section content has been suppressed, and not for when individual items are omitted - implementers may consider using a text note or a flag on an entry in these cases.</t>
-  </si>
-  <si>
-    <t>Allows capturing things like "none exist" or "not asked" which can be important for most lists.</t>
-  </si>
-  <si>
-    <t>If a section is empty, why it is empty.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/list-empty-reason</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ,code&lt;{ListEmptyReason}].value[type=CD]</t>
-  </si>
-  <si>
-    <t>Composition.section.section</t>
-  </si>
-  <si>
-    <t>Nested Section</t>
-  </si>
-  <si>
-    <t>A nested sub-section within this section.</t>
-  </si>
-  <si>
-    <t>Nested sections are primarily used to help human readers navigate to particular portions of the document.</t>
-  </si>
-  <si>
-    <t>.component.section</t>
-  </si>
-  <si>
-    <t>Composition.section.section.id</t>
-  </si>
-  <si>
-    <t>Composition.section.section.extension</t>
-  </si>
-  <si>
-    <t>Composition.section.section.modifierExtension</t>
-  </si>
-  <si>
-    <t>Composition.section.section.title</t>
-  </si>
-  <si>
-    <t>Composition.section.section.code</t>
-  </si>
-  <si>
-    <t>Composition.section.section.text</t>
-  </si>
-  <si>
-    <t>Composition.section.section.mode</t>
-  </si>
-  <si>
-    <t>Composition.section.section.orderedBy</t>
-  </si>
-  <si>
-    <t>Composition.section.section.entry</t>
   </si>
   <si>
     <t>Composition.section.section.emptyReason</t>
@@ -1298,7 +1465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM64"/>
+  <dimension ref="A1:AL78"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1307,8 +1474,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.23046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.6875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1330,11 +1497,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="62.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.51953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1800,10 +1967,10 @@
         <v>39</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>63</v>
@@ -1814,9 +1981,7 @@
       <c r="L5" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="M5" t="s" s="2">
-        <v>66</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>39</v>
@@ -1865,7 +2030,7 @@
         <v>39</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>40</v>
@@ -1880,7 +2045,7 @@
         <v>39</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>39</v>
@@ -1895,14 +2060,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>39</v>
@@ -1914,16 +2079,16 @@
         <v>39</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1949,37 +2114,37 @@
         <v>39</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="AC6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>39</v>
@@ -1988,7 +2153,7 @@
         <v>39</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>39</v>
@@ -1999,11 +2164,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="C7" t="s" s="2">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2024,15 +2191,11 @@
       <c r="J7" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="K7" s="2"/>
+      <c r="L7" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>82</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>39</v>
@@ -2081,22 +2244,22 @@
         <v>39</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>39</v>
@@ -2107,18 +2270,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>39</v>
@@ -2127,19 +2290,19 @@
         <v>39</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2188,15 +2351,11 @@
       <c r="AD8" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE8" t="s" s="2">
-        <v>92</v>
-      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG8" s="2"/>
       <c r="AH8" t="s" s="2">
         <v>39</v>
       </c>
@@ -2204,7 +2363,7 @@
         <v>39</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>39</v>
@@ -2215,18 +2374,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>39</v>
@@ -2235,19 +2394,19 @@
         <v>39</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2296,15 +2455,11 @@
       <c r="AD9" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE9" t="s" s="2">
-        <v>100</v>
-      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG9" s="2"/>
       <c r="AH9" t="s" s="2">
         <v>39</v>
       </c>
@@ -2312,7 +2467,7 @@
         <v>39</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>39</v>
@@ -2323,11 +2478,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2340,22 +2495,22 @@
         <v>39</v>
       </c>
       <c r="H10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I10" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="I10" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J10" t="s" s="2">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2404,15 +2559,11 @@
       <c r="AD10" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE10" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG10" s="2"/>
       <c r="AH10" t="s" s="2">
         <v>39</v>
       </c>
@@ -2420,7 +2571,7 @@
         <v>39</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>39</v>
@@ -2431,7 +2582,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2442,7 +2593,7 @@
         <v>40</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>39</v>
@@ -2454,16 +2605,16 @@
         <v>51</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2489,13 +2640,13 @@
         <v>39</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>39</v>
@@ -2524,18 +2675,18 @@
         <v>39</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>112</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2543,35 +2694,33 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>39</v>
       </c>
@@ -2595,13 +2744,13 @@
         <v>39</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>39</v>
@@ -2630,18 +2779,18 @@
         <v>39</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>123</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2649,7 +2798,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>50</v>
@@ -2658,26 +2807,24 @@
         <v>39</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>39</v>
       </c>
@@ -2701,13 +2848,13 @@
         <v>39</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>39</v>
@@ -2724,11 +2871,15 @@
       <c r="AD13" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE13" s="2"/>
+      <c r="AE13" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG13" s="2"/>
+      <c r="AG13" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH13" t="s" s="2">
         <v>39</v>
       </c>
@@ -2736,18 +2887,18 @@
         <v>39</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>135</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2767,23 +2918,21 @@
         <v>39</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>39</v>
       </c>
@@ -2807,13 +2956,13 @@
         <v>39</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>39</v>
@@ -2830,11 +2979,15 @@
       <c r="AD14" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE14" s="2"/>
+      <c r="AE14" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG14" s="2"/>
+      <c r="AG14" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH14" t="s" s="2">
         <v>39</v>
       </c>
@@ -2842,26 +2995,26 @@
         <v>39</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>135</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>50</v>
@@ -2873,23 +3026,21 @@
         <v>39</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>39</v>
       </c>
@@ -2936,41 +3087,45 @@
       <c r="AD15" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE15" s="2"/>
+      <c r="AE15" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG15" s="2"/>
+      <c r="AG15" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH15" t="s" s="2">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>153</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>39</v>
@@ -2979,21 +3134,21 @@
         <v>39</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>39</v>
       </c>
@@ -3040,11 +3195,15 @@
       <c r="AD16" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE16" s="2"/>
+      <c r="AE16" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG16" s="2"/>
+      <c r="AG16" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH16" t="s" s="2">
         <v>39</v>
       </c>
@@ -3052,29 +3211,29 @@
         <v>39</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>161</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>39</v>
@@ -3083,23 +3242,21 @@
         <v>39</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>163</v>
+        <v>70</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>39</v>
       </c>
@@ -3146,11 +3303,15 @@
       <c r="AD17" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE17" s="2"/>
+      <c r="AE17" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG17" s="2"/>
+      <c r="AG17" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH17" t="s" s="2">
         <v>39</v>
       </c>
@@ -3158,26 +3319,26 @@
         <v>39</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>170</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>41</v>
@@ -3186,24 +3347,24 @@
         <v>39</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>39</v>
       </c>
@@ -3250,11 +3411,15 @@
       <c r="AD18" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE18" s="2"/>
+      <c r="AE18" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG18" s="2"/>
+      <c r="AG18" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH18" t="s" s="2">
         <v>39</v>
       </c>
@@ -3262,18 +3427,18 @@
         <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>178</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3281,7 +3446,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>50</v>
@@ -3296,16 +3461,16 @@
         <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3366,18 +3531,18 @@
         <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>39</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3385,7 +3550,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>50</v>
@@ -3400,18 +3565,20 @@
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>39</v>
       </c>
@@ -3435,13 +3602,13 @@
         <v>39</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>39</v>
@@ -3470,18 +3637,18 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>192</v>
+        <v>67</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>39</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3489,10 +3656,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>39</v>
@@ -3504,19 +3671,19 @@
         <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>39</v>
@@ -3541,13 +3708,13 @@
         <v>39</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>39</v>
@@ -3573,21 +3740,21 @@
         <v>39</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>39</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3607,19 +3774,23 @@
         <v>39</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>39</v>
       </c>
@@ -3643,13 +3814,13 @@
         <v>39</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>39</v>
+        <v>183</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>39</v>
@@ -3666,15 +3837,11 @@
       <c r="AD22" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE22" t="s" s="2">
-        <v>205</v>
-      </c>
+      <c r="AE22" s="2"/>
       <c r="AF22" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG22" s="2"/>
       <c r="AH22" t="s" s="2">
         <v>39</v>
       </c>
@@ -3682,29 +3849,29 @@
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>39</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>39</v>
@@ -3713,21 +3880,23 @@
         <v>39</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>39</v>
       </c>
@@ -3774,15 +3943,11 @@
       <c r="AD23" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE23" t="s" s="2">
-        <v>208</v>
-      </c>
+      <c r="AE23" s="2"/>
       <c r="AF23" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG23" s="2"/>
       <c r="AH23" t="s" s="2">
         <v>39</v>
       </c>
@@ -3790,52 +3955,52 @@
         <v>39</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>39</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>210</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>39</v>
       </c>
@@ -3882,15 +4047,11 @@
       <c r="AD24" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE24" t="s" s="2">
-        <v>212</v>
-      </c>
+      <c r="AE24" s="2"/>
       <c r="AF24" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG24" s="2"/>
       <c r="AH24" t="s" s="2">
         <v>39</v>
       </c>
@@ -3898,18 +4059,18 @@
         <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>93</v>
+        <v>199</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>39</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3920,7 +4081,7 @@
         <v>50</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>39</v>
@@ -3932,19 +4093,19 @@
         <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>39</v>
@@ -3969,13 +4130,13 @@
         <v>39</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>218</v>
+        <v>39</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>219</v>
+        <v>39</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>39</v>
@@ -4004,18 +4165,18 @@
         <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>39</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4023,10 +4184,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>39</v>
@@ -4038,17 +4199,17 @@
         <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>39</v>
@@ -4096,11 +4257,15 @@
       <c r="AD26" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE26" s="2"/>
+      <c r="AE26" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="AF26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG26" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH26" t="s" s="2">
         <v>39</v>
       </c>
@@ -4108,18 +4273,18 @@
         <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>39</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4127,7 +4292,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>50</v>
@@ -4142,18 +4307,18 @@
         <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>229</v>
+        <v>63</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>39</v>
       </c>
@@ -4212,18 +4377,18 @@
         <v>39</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>235</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4240,26 +4405,24 @@
         <v>39</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>237</v>
+        <v>116</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>39</v>
       </c>
@@ -4283,13 +4446,13 @@
         <v>39</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>39</v>
+        <v>230</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>39</v>
@@ -4318,10 +4481,10 @@
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>39</v>
@@ -4329,7 +4492,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4352,18 +4515,20 @@
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>39</v>
       </c>
@@ -4419,13 +4584,13 @@
         <v>39</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>39</v>
@@ -4433,7 +4598,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4456,13 +4621,13 @@
         <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>203</v>
+        <v>64</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>204</v>
+        <v>65</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4513,7 +4678,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4528,7 +4693,7 @@
         <v>39</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>39</v>
@@ -4539,11 +4704,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4562,16 +4727,16 @@
         <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>207</v>
+        <v>72</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4621,7 +4786,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4636,7 +4801,7 @@
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>39</v>
@@ -4647,11 +4812,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4670,16 +4835,16 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4729,7 +4894,7 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4744,7 +4909,7 @@
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>39</v>
@@ -4755,7 +4920,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4766,7 +4931,7 @@
         <v>50</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>39</v>
@@ -4778,18 +4943,20 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>39</v>
       </c>
@@ -4813,13 +4980,13 @@
         <v>39</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>39</v>
@@ -4848,10 +5015,10 @@
         <v>39</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>39</v>
@@ -4859,7 +5026,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4867,7 +5034,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>50</v>
@@ -4882,16 +5049,18 @@
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>39</v>
       </c>
@@ -4950,10 +5119,10 @@
         <v>39</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>39</v>
@@ -4961,7 +5130,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4972,7 +5141,7 @@
         <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>39</v>
@@ -4984,19 +5153,17 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>39</v>
@@ -5053,21 +5220,21 @@
         <v>39</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>39</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5087,19 +5254,23 @@
         <v>39</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>180</v>
+        <v>271</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>203</v>
+        <v>272</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>39</v>
       </c>
@@ -5146,15 +5317,11 @@
       <c r="AD36" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE36" t="s" s="2">
-        <v>205</v>
-      </c>
+      <c r="AE36" s="2"/>
       <c r="AF36" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG36" s="2"/>
       <c r="AH36" t="s" s="2">
         <v>39</v>
       </c>
@@ -5162,10 +5329,10 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>122</v>
+        <v>276</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>39</v>
+        <v>277</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>39</v>
@@ -5173,11 +5340,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5193,19 +5360,19 @@
         <v>39</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>96</v>
+        <v>233</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>97</v>
+        <v>279</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>207</v>
+        <v>280</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>99</v>
+        <v>281</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5254,26 +5421,22 @@
       <c r="AD37" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE37" t="s" s="2">
-        <v>208</v>
-      </c>
+      <c r="AE37" s="2"/>
       <c r="AF37" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG37" s="2"/>
       <c r="AH37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>122</v>
+        <v>282</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>39</v>
+        <v>283</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>39</v>
@@ -5281,40 +5444,38 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>210</v>
+        <v>39</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>39</v>
@@ -5363,13 +5524,13 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>39</v>
@@ -5378,7 +5539,7 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>39</v>
@@ -5389,11 +5550,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5409,19 +5570,19 @@
         <v>39</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>278</v>
+        <v>71</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>279</v>
+        <v>72</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>280</v>
+        <v>73</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5447,13 +5608,13 @@
         <v>39</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>281</v>
+        <v>39</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>282</v>
+        <v>39</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>39</v>
@@ -5470,11 +5631,15 @@
       <c r="AD39" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE39" s="2"/>
+      <c r="AE39" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG39" s="2"/>
+      <c r="AG39" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH39" t="s" s="2">
         <v>39</v>
       </c>
@@ -5482,10 +5647,10 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>39</v>
@@ -5493,38 +5658,40 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>284</v>
+        <v>70</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>285</v>
+        <v>144</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>39</v>
@@ -5572,11 +5739,15 @@
       <c r="AD40" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE40" s="2"/>
+      <c r="AE40" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG40" s="2"/>
+      <c r="AG40" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH40" t="s" s="2">
         <v>39</v>
       </c>
@@ -5584,10 +5755,10 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>39</v>
@@ -5603,10 +5774,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>39</v>
@@ -5618,7 +5789,7 @@
         <v>51</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>288</v>
@@ -5626,7 +5797,9 @@
       <c r="L41" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M41" s="2"/>
+      <c r="M41" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>39</v>
@@ -5651,13 +5824,13 @@
         <v>39</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>39</v>
+        <v>291</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>39</v>
+        <v>292</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>39</v>
@@ -5686,10 +5859,10 @@
         <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>122</v>
+        <v>294</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>39</v>
@@ -5697,7 +5870,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5705,10 +5878,10 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>39</v>
@@ -5717,16 +5890,16 @@
         <v>39</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>194</v>
+        <v>296</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5785,13 +5958,13 @@
         <v>39</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>294</v>
+        <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>39</v>
@@ -5799,7 +5972,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5810,7 +5983,7 @@
         <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>39</v>
@@ -5819,19 +5992,23 @@
         <v>39</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>203</v>
+        <v>302</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>39</v>
       </c>
@@ -5878,26 +6055,22 @@
       <c r="AD43" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE43" t="s" s="2">
-        <v>205</v>
-      </c>
+      <c r="AE43" s="2"/>
       <c r="AF43" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG43" s="2"/>
       <c r="AH43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>122</v>
+        <v>306</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>39</v>
+        <v>307</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>39</v>
@@ -5905,18 +6078,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>39</v>
@@ -5928,17 +6101,15 @@
         <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>39</v>
@@ -5987,13 +6158,13 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>208</v>
+        <v>66</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>39</v>
@@ -6002,7 +6173,7 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>39</v>
@@ -6013,11 +6184,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>210</v>
+        <v>69</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6030,22 +6201,22 @@
         <v>39</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>211</v>
+        <v>72</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6095,7 +6266,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6110,7 +6281,7 @@
         <v>39</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>39</v>
@@ -6121,43 +6292,41 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>302</v>
+        <v>144</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>39</v>
       </c>
@@ -6204,11 +6373,15 @@
       <c r="AD46" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE46" s="2"/>
+      <c r="AE46" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG46" s="2"/>
+      <c r="AG46" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH46" t="s" s="2">
         <v>39</v>
       </c>
@@ -6216,10 +6389,10 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>39</v>
@@ -6227,7 +6400,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6238,7 +6411,7 @@
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>39</v>
@@ -6247,23 +6420,21 @@
         <v>39</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>39</v>
       </c>
@@ -6287,13 +6458,13 @@
         <v>39</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>39</v>
@@ -6322,10 +6493,10 @@
         <v>39</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>39</v>
@@ -6333,7 +6504,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6353,20 +6524,18 @@
         <v>39</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>39</v>
@@ -6420,16 +6589,16 @@
       </c>
       <c r="AG48" s="2"/>
       <c r="AH48" t="s" s="2">
-        <v>317</v>
+        <v>39</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>318</v>
+        <v>209</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>318</v>
+        <v>209</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>39</v>
@@ -6437,7 +6606,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6448,32 +6617,28 @@
         <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>69</v>
+        <v>186</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N49" t="s" s="2">
         <v>323</v>
       </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>39</v>
       </c>
@@ -6497,13 +6662,13 @@
         <v>39</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>324</v>
+        <v>39</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>325</v>
+        <v>39</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>39</v>
@@ -6532,18 +6697,18 @@
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>135</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6554,7 +6719,7 @@
         <v>40</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>39</v>
@@ -6566,20 +6731,16 @@
         <v>39</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>125</v>
+        <v>233</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>39</v>
       </c>
@@ -6603,13 +6764,13 @@
         <v>39</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>332</v>
+        <v>39</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>333</v>
+        <v>39</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>39</v>
@@ -6635,13 +6796,13 @@
         <v>39</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>39</v>
+        <v>328</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>122</v>
+        <v>330</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>39</v>
@@ -6649,7 +6810,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6660,7 +6821,7 @@
         <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>39</v>
@@ -6672,17 +6833,15 @@
         <v>39</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>336</v>
+        <v>63</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>337</v>
+        <v>64</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>39</v>
@@ -6730,22 +6889,26 @@
       <c r="AD51" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE51" s="2"/>
+      <c r="AE51" t="s" s="2">
+        <v>66</v>
+      </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG51" s="2"/>
+      <c r="AG51" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH51" t="s" s="2">
-        <v>340</v>
+        <v>39</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>341</v>
+        <v>67</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>342</v>
+        <v>39</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>39</v>
@@ -6753,18 +6916,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>39</v>
@@ -6776,20 +6939,18 @@
         <v>39</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>344</v>
+        <v>71</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>345</v>
+        <v>72</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>39</v>
       </c>
@@ -6813,45 +6974,47 @@
         <v>39</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>348</v>
+        <v>39</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>349</v>
+        <v>39</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AB52" s="2"/>
       <c r="AC52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE52" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG52" s="2"/>
+      <c r="AG52" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH52" t="s" s="2">
-        <v>340</v>
+        <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>350</v>
+        <v>67</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>39</v>
@@ -6859,9 +7022,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="C53" t="s" s="2">
         <v>39</v>
       </c>
@@ -6882,17 +7047,13 @@
         <v>39</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="K53" s="2"/>
       <c r="L53" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>39</v>
@@ -6940,22 +7101,26 @@
       <c r="AD53" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE53" s="2"/>
+      <c r="AE53" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG53" s="2"/>
+      <c r="AG53" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH53" t="s" s="2">
-        <v>317</v>
+        <v>39</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>295</v>
+        <v>39</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>355</v>
+        <v>39</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>39</v>
@@ -6963,38 +7128,40 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>39</v>
@@ -7031,25 +7198,23 @@
         <v>39</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AB54" s="2"/>
       <c r="AC54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>39</v>
@@ -7058,7 +7223,7 @@
         <v>39</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>39</v>
@@ -7067,13 +7232,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="C55" t="s" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7083,26 +7250,22 @@
         <v>41</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="K55" s="2"/>
       <c r="L55" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>39</v>
@@ -7151,7 +7314,7 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -7166,7 +7329,7 @@
         <v>39</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>39</v>
@@ -7177,40 +7340,38 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>210</v>
+        <v>39</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>39</v>
@@ -7259,13 +7420,13 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>39</v>
@@ -7274,7 +7435,7 @@
         <v>39</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>39</v>
@@ -7285,18 +7446,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>301</v>
+        <v>39</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>39</v>
@@ -7308,20 +7469,16 @@
         <v>39</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>39</v>
       </c>
@@ -7368,11 +7525,15 @@
       <c r="AD57" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE57" s="2"/>
+      <c r="AE57" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG57" s="2"/>
+      <c r="AG57" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH57" t="s" s="2">
         <v>39</v>
       </c>
@@ -7380,10 +7541,10 @@
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>184</v>
+        <v>39</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>39</v>
@@ -7391,7 +7552,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7399,7 +7560,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>50</v>
@@ -7414,26 +7575,22 @@
         <v>39</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>39</v>
+        <v>347</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>39</v>
@@ -7451,13 +7608,13 @@
         <v>39</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>311</v>
+        <v>39</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>312</v>
+        <v>39</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>39</v>
@@ -7474,11 +7631,15 @@
       <c r="AD58" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE58" s="2"/>
+      <c r="AE58" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="AF58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG58" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH58" t="s" s="2">
         <v>39</v>
       </c>
@@ -7486,10 +7647,10 @@
         <v>39</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>39</v>
@@ -7497,7 +7658,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7505,7 +7666,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>50</v>
@@ -7520,17 +7681,15 @@
         <v>39</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>39</v>
@@ -7578,22 +7737,26 @@
       <c r="AD59" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="AE59" s="2"/>
+      <c r="AE59" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG59" s="2"/>
+      <c r="AG59" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH59" t="s" s="2">
-        <v>317</v>
+        <v>39</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>318</v>
+        <v>139</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>318</v>
+        <v>39</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>39</v>
@@ -7601,11 +7764,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>39</v>
+        <v>354</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -7618,25 +7781,25 @@
         <v>39</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>39</v>
@@ -7661,13 +7824,13 @@
         <v>39</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>324</v>
+        <v>39</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>325</v>
+        <v>39</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>39</v>
@@ -7696,18 +7859,18 @@
         <v>39</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>326</v>
+        <v>223</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>122</v>
+        <v>224</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>135</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7730,19 +7893,19 @@
         <v>39</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>39</v>
@@ -7767,13 +7930,13 @@
         <v>39</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>39</v>
@@ -7802,10 +7965,10 @@
         <v>39</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>334</v>
+        <v>174</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>39</v>
@@ -7813,7 +7976,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7824,7 +7987,7 @@
         <v>40</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>39</v>
@@ -7836,16 +7999,16 @@
         <v>39</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -7900,16 +8063,16 @@
       </c>
       <c r="AG62" s="2"/>
       <c r="AH62" t="s" s="2">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>39</v>
@@ -7917,7 +8080,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7934,25 +8097,25 @@
         <v>39</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>347</v>
+        <v>376</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>39</v>
@@ -7977,13 +8140,13 @@
         <v>39</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>39</v>
@@ -8006,24 +8169,24 @@
       </c>
       <c r="AG63" s="2"/>
       <c r="AH63" t="s" s="2">
-        <v>340</v>
+        <v>39</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>39</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8034,7 +8197,7 @@
         <v>40</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>39</v>
@@ -8046,18 +8209,20 @@
         <v>39</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>39</v>
       </c>
@@ -8081,13 +8246,13 @@
         <v>39</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>39</v>
+        <v>385</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>39</v>
+        <v>386</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>39</v>
@@ -8110,23 +8275,1501 @@
       </c>
       <c r="AG64" s="2"/>
       <c r="AH64" t="s" s="2">
-        <v>317</v>
+        <v>39</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>295</v>
+        <v>387</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE65" s="2"/>
+      <c r="AF65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG65" s="2"/>
+      <c r="AH65" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE66" s="2"/>
+      <c r="AF66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG66" s="2"/>
+      <c r="AH66" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE67" s="2"/>
+      <c r="AF67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG67" s="2"/>
+      <c r="AH67" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="L71" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE71" s="2"/>
+      <c r="AF71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG71" s="2"/>
+      <c r="AH71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE72" s="2"/>
+      <c r="AF72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG72" s="2"/>
+      <c r="AH72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE73" s="2"/>
+      <c r="AF73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG73" s="2"/>
+      <c r="AH73" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE74" s="2"/>
+      <c r="AF74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG74" s="2"/>
+      <c r="AH74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE75" s="2"/>
+      <c r="AF75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG75" s="2"/>
+      <c r="AH75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE76" s="2"/>
+      <c r="AF76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG76" s="2"/>
+      <c r="AH76" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE77" s="2"/>
+      <c r="AF77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG77" s="2"/>
+      <c r="AH77" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE78" s="2"/>
+      <c r="AF78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG78" s="2"/>
+      <c r="AH78" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL64">
+  <autoFilter ref="A1:AL78">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8136,7 +9779,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI77">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
